--- a/bao_cao_phan_tich_doanh_thu.xlsx
+++ b/bao_cao_phan_tich_doanh_thu.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>doanh_thu_tb_moi_luot</t>
+          <t>trung binh</t>
         </is>
       </c>
     </row>
@@ -960,23 +960,35 @@
           <t>Bệnh viện Bà Rịa</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>13711000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20381000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18402000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11613000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31898000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10585000</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13,711,000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20,381,000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18,402,000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11,613,000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>31,898,000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10,585,000</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -985,23 +997,35 @@
           <t>Bệnh viện Hoàn Mỹ Bình Phước</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51192000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15113014</v>
-      </c>
-      <c r="G3" t="n">
-        <v>41564001</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51,192,000</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15,113,014</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>41,564,001</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1010,23 +1034,35 @@
           <t>Bệnh viện Nhân Dân Gia Định</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>17132000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>22182000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>180000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17,132,000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22,182,000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>180,000</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1035,23 +1071,35 @@
           <t>Bệnh viện Quận Bình Thạnh</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>18422000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4781000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14396000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>21099000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7852006</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2535000</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18,422,000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4,781,000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14,396,000</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21,099,000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7,852,006</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2,535,000</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1060,23 +1108,35 @@
           <t>Bệnh viện Quận Phú Nhuận</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5588000</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4122000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5178000</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5,588,000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4,122,000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5,178,000</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1085,23 +1145,35 @@
           <t>Bệnh viện đa khoa Quốc Tế Hoàn Mỹ Thủ Đức</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9043000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13273005</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1047000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>23926015</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9,043,000</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13,273,005</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1,047,000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>23,926,015</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1110,23 +1182,35 @@
           <t>Bệnh viện đa khoa Sài Gòn</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>360000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5681000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>360,000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5,681,000</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1135,23 +1219,35 @@
           <t>Bệnh viện đa khoa Tâm Anh</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2549000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9660026</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2,549,000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9,660,026</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1160,23 +1256,35 @@
           <t>Bệnh viện đại học Y dược</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>40153000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>63037000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>153154000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>61578021</v>
-      </c>
-      <c r="F10" t="n">
-        <v>205084232</v>
-      </c>
-      <c r="G10" t="n">
-        <v>118877173</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>40,153,000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>63,037,000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>153,154,000</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61,578,021</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>205,084,232</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>118,877,173</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1185,23 +1293,35 @@
           <t>Phòng Khám Hoàn Mỹ Tân Phú</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>13995000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5167000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>69171000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>13,995,000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5,167,000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69,171,000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/bao_cao_phan_tich_doanh_thu.xlsx
+++ b/bao_cao_phan_tich_doanh_thu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Theo_Nguon" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Theo_Thang" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hieu_Suat" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pivot_Table" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Theo_Nguon" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Theo_Thang" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Hieu_Suat" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Pivot_Table" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
